--- a/data/trans_camb/P7B_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7B_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 10,13</t>
+          <t>-13,77; 8,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 9,04</t>
+          <t>-13,81; 8,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 9,65</t>
+          <t>-15,51; 7,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 8,43</t>
+          <t>-9,79; 9,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 7,9</t>
+          <t>-10,23; 8,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 6,29</t>
+          <t>-11,81; 7,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 6,65</t>
+          <t>-8,4; 6,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 5,69</t>
+          <t>-8,54; 5,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 4,41</t>
+          <t>-10,65; 4,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>-4,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>-6,89%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 38,96</t>
+          <t>-37,12; 31,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 33,92</t>
+          <t>-36,08; 33,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 35,32</t>
+          <t>-40,74; 25,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 30,95</t>
+          <t>-22,55; 27,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 27,19</t>
+          <t>-24,52; 27,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 20,71</t>
+          <t>-28,16; 21,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 22,33</t>
+          <t>-20,88; 19,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 19,53</t>
+          <t>-22,42; 16,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 14,75</t>
+          <t>-27,14; 12,6</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 13,74</t>
+          <t>-10,26; 12,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 9,97</t>
+          <t>-10,77; 11,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 10,02</t>
+          <t>-9,5; 13,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 11,8</t>
+          <t>-10,43; 11,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 9,75</t>
+          <t>-11,32; 11,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 8,91</t>
+          <t>-12,23; 11,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 9,5</t>
+          <t>-8,06; 8,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,78</t>
+          <t>-7,86; 8,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,45</t>
+          <t>-7,62; 8,53</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 46,29</t>
+          <t>-31,0; 52,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 33,39</t>
+          <t>-32,0; 48,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 33,48</t>
+          <t>-28,79; 55,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 31,84</t>
+          <t>-19,7; 27,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 24,52</t>
+          <t>-21,63; 29,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 23,19</t>
+          <t>-23,27; 28,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 26,85</t>
+          <t>-18,04; 25,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 19,33</t>
+          <t>-18,37; 23,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 18,42</t>
+          <t>-17,98; 24,58</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 25,27</t>
+          <t>-39,77; 42,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 18,78</t>
+          <t>-42,51; 38,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 22,32</t>
+          <t>-40,25; 41,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 18,76</t>
+          <t>-22,16; 22,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 20,89</t>
+          <t>-20,27; 25,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 17,94</t>
+          <t>-21,67; 24,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 16,9</t>
+          <t>-23,84; 23,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 13,8</t>
+          <t>-22,67; 23,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 14,38</t>
+          <t>-21,22; 25,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 138,8</t>
+          <t>-79,44; 249,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,07; 105,2</t>
+          <t>-80,94; 203,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,4; 124,57</t>
+          <t>-79,83; 236,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 60,22</t>
+          <t>-43,69; 80,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 68,41</t>
+          <t>-40,37; 91,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 58,89</t>
+          <t>-42,93; 84,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 62,91</t>
+          <t>-47,98; 82,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 50,32</t>
+          <t>-46,28; 80,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 52,22</t>
+          <t>-43,52; 91,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,37</t>
+          <t>-9,47; 8,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,17</t>
+          <t>-9,91; 7,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 6,99</t>
+          <t>-9,44; 8,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 7,05</t>
+          <t>-6,55; 7,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,83</t>
+          <t>-6,5; 6,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 5,53</t>
+          <t>-7,87; 5,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,81</t>
+          <t>-5,1; 5,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,83</t>
+          <t>-5,81; 5,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,29</t>
+          <t>-6,48; 5,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-2,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 34,39</t>
+          <t>-26,58; 30,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 24,92</t>
+          <t>-26,37; 28,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 24,29</t>
+          <t>-26,12; 30,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 20,64</t>
+          <t>-14,3; 20,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 19,87</t>
+          <t>-14,45; 17,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 15,99</t>
+          <t>-17,22; 15,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 17,75</t>
+          <t>-12,57; 16,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 15,1</t>
+          <t>-14,47; 16,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 12,94</t>
+          <t>-15,76; 14,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
